--- a/spliced/falling/2023-03-21_15-35-27/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-27/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,78 +452,188 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.067278563976287</v>
+        <v>-0.3275403976440429</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.54173904657364</v>
+        <v>-1.032773733139038</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.944739699363709</v>
+        <v>-0.2356588244438171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.4881105124950414</v>
+        <v>-1.590312331914902</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.259673044085503</v>
+        <v>-0.9565697163343428</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.275467619299889</v>
+        <v>-1.569369990378618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.24235272407532</v>
+        <v>0.2956193089485168</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.947445154190064</v>
+        <v>-0.9267413020133971</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.148832976818081</v>
+        <v>-1.241599485278129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.217258334159848</v>
+        <v>-0.6574213504791258</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.320076808333399</v>
+        <v>-0.9026327282190323</v>
       </c>
       <c r="C5" t="n">
-        <v>9.556089490652074</v>
+        <v>-1.075559064745903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.25036442279817</v>
+        <v>0.3167376518249511</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2667215764522569</v>
+        <v>-0.9883218407630923</v>
       </c>
       <c r="C6" t="n">
-        <v>19.65825939178468</v>
+        <v>-1.371818482875824</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-5.869112968444829</v>
+        <v>0.4182748794555663</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.593451023101809</v>
+        <v>-0.9399109184741974</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.71562802791596</v>
+        <v>-1.527341216802597</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>0.2231501340866089</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.9057424068450929</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.459591150283814</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.4751685261726377</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.88183431327343</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.828994989395142</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.972740650177002</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.058116793632508</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.322797894477844</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-1.244342982769013</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.110738858580589</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.960273459553719</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-1.067278563976287</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.54173904657364</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-3.944739699363709</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.4881105124950414</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-2.259673044085503</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-4.275467619299889</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.24235272407532</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.947445154190064</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.148832976818081</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6.217258334159848</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-2.320076808333399</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9.556089490652074</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10.25036442279817</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2667215764522569</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19.65825939178468</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-5.869112968444829</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-2.593451023101809</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-7.71562802791596</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>14.12184143066406</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B18" t="n">
         <v>8.388177871704102</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C18" t="n">
         <v>14.74949073791504</v>
       </c>
     </row>
